--- a/chapters/ch10-LandUseUrbanPlanning/datasets/Urban_Density.xlsx
+++ b/chapters/ch10-LandUseUrbanPlanning/datasets/Urban_Density.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/MCBook2021/chapters/ch10-LandUseUrbanPlanning/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF06F45-2BBA-D94D-AE1F-119403D02F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CCFDD0-CFB4-C94B-A42D-6DD9F2160F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25160" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t>Houston</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>nudge_y</t>
+  </si>
+  <si>
+    <t>size</t>
   </si>
 </sst>
 </file>
@@ -485,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -498,7 +501,7 @@
     <col min="4" max="4" width="21.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="60.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="60.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -517,8 +520,11 @@
       <c r="F1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -532,13 +538,16 @@
         <v>73.583554919206307</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -552,13 +561,16 @@
         <v>69.032521988136594</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -572,13 +584,16 @@
         <v>65.054203313561004</v>
       </c>
       <c r="E4">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -592,13 +607,16 @@
         <v>62.783800368173402</v>
       </c>
       <c r="E5">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -612,13 +630,16 @@
         <v>57.527101656780502</v>
       </c>
       <c r="E6">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -632,13 +653,16 @@
         <v>54.827163019022201</v>
       </c>
       <c r="E7">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -652,13 +676,16 @@
         <v>53.6919615463284</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F8">
         <v>-1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -672,13 +699,16 @@
         <v>50.992022908570199</v>
       </c>
       <c r="E9">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="F9">
         <v>-1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -692,13 +722,16 @@
         <v>48.159132746982998</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="F10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-2</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -712,13 +745,16 @@
         <v>43.464921251789697</v>
       </c>
       <c r="E11">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -732,13 +768,16 @@
         <v>34.516260994068297</v>
       </c>
       <c r="E12">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -752,13 +791,16 @@
         <v>32.245858048680702</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.5</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -772,13 +814,16 @@
         <v>30.466353037430899</v>
       </c>
       <c r="E14">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1.5</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -792,13 +837,16 @@
         <v>28.983432194722798</v>
       </c>
       <c r="E15">
-        <v>70</v>
+        <v>21.5</v>
       </c>
       <c r="F15">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.4</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -812,13 +860,16 @@
         <v>27.2755164655348</v>
       </c>
       <c r="E16">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="F16">
         <v>-1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -832,13 +883,16 @@
         <v>10.9429331151564</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>-10</v>
       </c>
       <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-1.5</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -852,13 +906,16 @@
         <v>16.905297606872502</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>-19</v>
       </c>
       <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -872,13 +929,16 @@
         <v>16.342810390672899</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -892,13 +952,16 @@
         <v>15.197381877684499</v>
       </c>
       <c r="E20">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-0.5</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -912,13 +975,16 @@
         <v>16.363264471261999</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.4</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -932,13 +998,16 @@
         <v>13.7860503170382</v>
       </c>
       <c r="E22">
-        <v>50</v>
+        <v>-12</v>
       </c>
       <c r="F22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1.2</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -952,13 +1021,16 @@
         <v>9.2350173859685007</v>
       </c>
       <c r="E23">
-        <v>50</v>
+        <v>-5</v>
       </c>
       <c r="F23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-3</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -972,13 +1044,16 @@
         <v>12.926978932296899</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>-10.5</v>
       </c>
       <c r="F24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-0.5</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -992,13 +1067,16 @@
         <v>12.078134587850201</v>
       </c>
       <c r="E25">
-        <v>50</v>
+        <v>-7</v>
       </c>
       <c r="F25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-1.3</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1012,13 +1090,16 @@
         <v>11.229290243403501</v>
       </c>
       <c r="E26">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.7</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1032,13 +1113,16 @@
         <v>14.491716097361399</v>
       </c>
       <c r="E27">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -1052,13 +1136,16 @@
         <v>10.2270402945387</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-1.8</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1072,13 +1159,16 @@
         <v>1.1352014726938</v>
       </c>
       <c r="E29">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1092,13 +1182,16 @@
         <v>6.1157700961341703</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="F30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-2</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1112,13 +1205,16 @@
         <v>8.8054816935978693</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="F31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-2</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1132,10 +1228,13 @@
         <v>2.98629576600531</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>-22</v>
       </c>
       <c r="F32">
         <v>0</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
